--- a/TestData/LV_T2018_GiftApprovalProcessApproveGiftsVerifyThePreviousYTDGiftValueAndNewYTDIsVisibleToApprover.xlsx
+++ b/TestData/LV_T2018_GiftApprovalProcessApproveGiftsVerifyThePreviousYTDGiftValueAndNewYTDIsVisibleToApprover.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49EE071-5145-4DB7-880F-1643824C1941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68E92EC-C892-4A72-A50B-EB2204BA14F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="5" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>Congratulations</t>
   </si>
   <si>
-    <t>StdUser</t>
-  </si>
-  <si>
     <t>SubmittedFor</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>Melissa Zatta</t>
-  </si>
-  <si>
     <t>App Name</t>
   </si>
   <si>
@@ -158,6 +152,12 @@
   </si>
   <si>
     <t>Julie Carthane</t>
+  </si>
+  <si>
+    <t>CF FInancial User</t>
+  </si>
+  <si>
+    <t>Aja Mount</t>
   </si>
 </sst>
 </file>
@@ -201,14 +201,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -494,26 +491,27 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -533,16 +531,16 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -558,24 +556,24 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -588,31 +586,31 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -621,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -642,27 +640,27 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
+      <c r="B2" t="s">
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -671,10 +669,10 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
@@ -683,10 +681,10 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -700,21 +698,21 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -722,7 +720,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -734,36 +732,36 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
